--- a/LaboInsru/position/dataA.xlsx
+++ b/LaboInsru/position/dataA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Documents\GitHub\Academic\LaboInsru\position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1E6AE-BFF3-48F8-8273-D680A34FCCAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41175268-2C96-44F6-B1BE-712D36CAFDDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="257" yWindow="463" windowWidth="30394" windowHeight="14708" activeTab="1" xr2:uid="{B295DECF-01BD-4365-A2B3-C3AC1600456C}"/>
+    <workbookView xWindow="257" yWindow="463" windowWidth="30394" windowHeight="14708" xr2:uid="{B295DECF-01BD-4365-A2B3-C3AC1600456C}"/>
   </bookViews>
   <sheets>
     <sheet name="position" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>hauteur</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>%errMoy</t>
+  </si>
+  <si>
+    <t>mauvaisPred</t>
+  </si>
+  <si>
+    <t>errMauvais</t>
   </si>
 </sst>
 </file>
@@ -1156,6 +1162,946 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69039566929133855"/>
+          <c:y val="0.90277777777777779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12756080489938756"/>
+                  <c:y val="-0.10671551472732575"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>position!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>position!$M$2:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D5A-4180-AE86-C14EE0A6FA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="666308552"/>
+        <c:axId val="666307568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="666308552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666307568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="666307568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666308552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>position!$L$22:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>position!$M$22:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E24-4AC4-8447-76D5A323C7E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334313480"/>
+        <c:axId val="334313152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="334313480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334313152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="334313152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334313480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1664,7 +2610,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2347,6 +3293,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3896,6 +4922,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4480,6 +6538,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>538842</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C93BBEE-3423-4251-BB81-D1DA19E231A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3514A4A-A6CA-4FD5-B3BE-1CE28F4ED1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4862,23 +6992,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C5F7A-085D-463D-A7EC-C7D39B7CE96D}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4892,8 +7028,16 @@
       <c r="M2">
         <v>1.44</v>
       </c>
+      <c r="P2">
+        <f>-0.0699 * L2 + 3.22</f>
+        <v>1.5424000000000002</v>
+      </c>
+      <c r="Q2">
+        <f>ABS(P2-M2)/M2</f>
+        <v>7.1111111111111305E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5</v>
       </c>
@@ -4913,8 +7057,16 @@
       <c r="M3">
         <v>1.4</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P21" si="0">-0.0699 * L3 + 3.22</f>
+        <v>1.4725000000000001</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q21" si="1">ABS(P3-M3)/M3</f>
+        <v>5.1785714285714456E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -4934,8 +7086,16 @@
       <c r="M4">
         <v>1.36</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.4026000000000001</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>3.1323529411764681E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>15</v>
       </c>
@@ -4955,8 +7115,16 @@
       <c r="M5">
         <v>1.32</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.3327</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>9.6212121212120704E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4976,8 +7144,16 @@
       <c r="M6">
         <v>1.28</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.2628000000000001</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1.3437499999999908E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>25</v>
       </c>
@@ -4997,8 +7173,16 @@
       <c r="M7">
         <v>1.24</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.1929000000000003</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>3.7983870967741695E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>30</v>
       </c>
@@ -5018,8 +7202,16 @@
       <c r="M8">
         <v>1.2</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1.1230000000000002</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>6.4166666666666455E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>35</v>
       </c>
@@ -5039,8 +7231,16 @@
       <c r="M9">
         <v>1.1200000000000001</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1.0531000000000001</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>5.9732142857142817E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>40</v>
       </c>
@@ -5060,8 +7260,16 @@
       <c r="M10">
         <v>1.04</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.98320000000000007</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>5.461538461538458E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>45</v>
       </c>
@@ -5081,8 +7289,16 @@
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.9133</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>8.6699999999999999E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>50</v>
       </c>
@@ -5102,8 +7318,16 @@
       <c r="M12">
         <v>0.92</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.84339999999999993</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>8.3260869565217513E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>55</v>
       </c>
@@ -5123,8 +7347,16 @@
       <c r="M13">
         <v>0.84</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.77349999999999985</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>7.9166666666666802E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>60</v>
       </c>
@@ -5144,8 +7376,16 @@
       <c r="M14">
         <v>0.76</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.70360000000000023</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>7.4210526315789185E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>65</v>
       </c>
@@ -5165,8 +7405,16 @@
       <c r="M15">
         <v>0.65</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0.63370000000000015</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>2.5076923076922875E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>70</v>
       </c>
@@ -5186,8 +7434,16 @@
       <c r="M16">
         <v>0.6</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0.56380000000000008</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>6.033333333333317E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>75</v>
       </c>
@@ -5207,8 +7463,16 @@
       <c r="M17">
         <v>0.44</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0.12250000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>80</v>
       </c>
@@ -5228,8 +7492,16 @@
       <c r="M18">
         <v>0.4</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0.42399999999999993</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999776E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>85</v>
       </c>
@@ -5249,8 +7521,16 @@
       <c r="M19">
         <v>0.32</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0.35409999999999986</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0.10656249999999953</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>90</v>
       </c>
@@ -5270,8 +7550,16 @@
       <c r="O20" t="s">
         <v>11</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0.28420000000000023</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0.18416666666666767</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>95</v>
       </c>
@@ -5293,8 +7581,16 @@
         <f>(ABS(N21-M21))/M21</f>
         <v>0.15999999999999989</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0.21430000000000016</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0.33937500000000093</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>100</v>
       </c>
@@ -5309,15 +7605,15 @@
         <v>0.24</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N36" si="0">L22 * 0.0747 -3.0265</f>
+        <f t="shared" ref="N22:N36" si="2">L22 * 0.0747 -3.0265</f>
         <v>0.26029999999999998</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O36" si="1">(ABS(N22-M22))/M22</f>
+        <f t="shared" ref="O22:O36" si="3">(ABS(N22-M22))/M22</f>
         <v>8.4583333333333274E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
       <c r="L23">
         <v>45</v>
@@ -5326,15 +7622,19 @@
         <v>0.3</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33499999999999996</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11666666666666659</v>
       </c>
+      <c r="Q23">
+        <f>AVERAGE(Q2:Q21)*100</f>
+        <v>8.0756480883066768</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
       <c r="L24">
         <v>46</v>
@@ -5343,15 +7643,15 @@
         <v>0.4</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40969999999999995</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4249999999999827E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
       <c r="L25">
         <v>47</v>
@@ -5360,15 +7660,15 @@
         <v>0.48</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.48439999999999994</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1666666666665834E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>45</v>
       </c>
@@ -5383,15 +7683,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55910000000000037</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6071428571422836E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>47.5</v>
       </c>
@@ -5406,15 +7706,15 @@
         <v>0.64</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63380000000000036</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.6874999999994535E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>50</v>
       </c>
@@ -5429,15 +7729,15 @@
         <v>0.76</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70850000000000035</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7763157894736387E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>52.5</v>
       </c>
@@ -5452,15 +7752,15 @@
         <v>0.84</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78320000000000034</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7619047619047176E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>55</v>
       </c>
@@ -5475,15 +7775,15 @@
         <v>0.88</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.85790000000000033</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5113636363635995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>57.5</v>
       </c>
@@ -5498,15 +7798,15 @@
         <v>0.96</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.93260000000000032</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8541666666666299E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>60</v>
       </c>
@@ -5521,11 +7821,11 @@
         <v>1.04</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0073000000000003</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1442307692307429E-2</v>
       </c>
     </row>
@@ -5544,11 +7844,11 @@
         <v>1.08</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0820000000000003</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.851851851852059E-3</v>
       </c>
     </row>
@@ -5567,11 +7867,11 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1567000000000003</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8448275862065836E-3</v>
       </c>
     </row>
@@ -5590,11 +7890,11 @@
         <v>1.22</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2314000000000003</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.3442622950822129E-3</v>
       </c>
     </row>
@@ -5613,11 +7913,11 @@
         <v>1.28</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3061000000000003</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0390625000000183E-2</v>
       </c>
     </row>
@@ -5715,7 +8015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6077946E-23BD-4FEC-A4D5-4F2A491EA003}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/LaboInsru/position/dataA.xlsx
+++ b/LaboInsru/position/dataA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Documents\GitHub\Academic\LaboInsru\position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41175268-2C96-44F6-B1BE-712D36CAFDDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65061C-1A67-45D3-A363-70220E365A1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="257" yWindow="463" windowWidth="30394" windowHeight="14708" xr2:uid="{B295DECF-01BD-4365-A2B3-C3AC1600456C}"/>
+    <workbookView xWindow="360" yWindow="972" windowWidth="30396" windowHeight="14712" activeTab="1" xr2:uid="{B295DECF-01BD-4365-A2B3-C3AC1600456C}"/>
   </bookViews>
   <sheets>
     <sheet name="position" sheetId="1" r:id="rId1"/>
@@ -6994,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C5F7A-085D-463D-A7EC-C7D39B7CE96D}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -8015,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6077946E-23BD-4FEC-A4D5-4F2A491EA003}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
